--- a/medicine/Pharmacie/IIIA/IIIA.xlsx
+++ b/medicine/Pharmacie/IIIA/IIIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antagonistes du récepteur GPIIb / IIIa sont des médicaments antiagrégants plaquettaires.
 </t>
@@ -511,11 +523,13 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abciximab est un anticorps monoclonal ciblant cette protéine. 
 Le tirofiban est un peptide synthétique. L’eptifibatide est un peptide cyclique basé sur la séquence Arg – Gly – Asp («RGD») commune aux ligands des récepteurs GPIIb / IIIa. Les deux sont administrés par voie intraveineuse en complément de l'aspirine.  ils réduisent les manifestations précoces du syndrome coronarien aigu
-Le traitement oral à long terme avec des antagonistes des récepteurs GPIIb / IIIa n’est pas efficace et peut être nocif. Sans surprise, ils augmentent le risque de saignement[1].
+Le traitement oral à long terme avec des antagonistes des récepteurs GPIIb / IIIa n’est pas efficace et peut être nocif. Sans surprise, ils augmentent le risque de saignement.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les contre-indications sont[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les contre-indications sont :
 Hémorragie active et risque accru d'hémorragie.
 Insuffisance hépatique.</t>
         </is>
@@ -576,9 +592,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les effets secondaires connus sont[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les effets secondaires connus sont :
 Hémorragie
 Thrombocytopénie
 Rarement : réactions d'hypersensibilité.</t>
@@ -609,9 +627,11 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Risque accru d'hémorragie en cas de prise de plusieurs anti-thrombotiques ou d'association des antagonistes des récepteurs de la glycoprotéine IIb/IIIa à d'autres médicaments présentant un risque d'hémorragie tels que les AINS, ISRS et inhibiteurs de la recapture de la sérotonine et de la noradrénaline (IRSN)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Risque accru d'hémorragie en cas de prise de plusieurs anti-thrombotiques ou d'association des antagonistes des récepteurs de la glycoprotéine IIb/IIIa à d'autres médicaments présentant un risque d'hémorragie tels que les AINS, ISRS et inhibiteurs de la recapture de la sérotonine et de la noradrénaline (IRSN).
 </t>
         </is>
       </c>
